--- a/data/trans_dic/P64D$noloshace_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$noloshace_2023-Edad-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01372433904192737</v>
+        <v>0.008963048706404408</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1455028525282369</v>
+        <v>0.1556425652116574</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1215862115067171</v>
+        <v>0.1450601255239534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1003431511200023</v>
+        <v>0.09978093938842357</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.0348655503037142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05036183155680334</v>
+        <v>0.05036183155680333</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03455654461069311</v>
+        <v>0.03354127297840672</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01772390449625665</v>
+        <v>0.0169501467963824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03332164083470844</v>
+        <v>0.03318283319634221</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1041912397949158</v>
+        <v>0.1016266113942235</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06449928101405936</v>
+        <v>0.062715276093017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07289684340796115</v>
+        <v>0.07731579108591431</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.04351943702783</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03547753731259926</v>
+        <v>0.03547753731259923</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04009935778237761</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02709702941474277</v>
+        <v>0.026345999445516</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02173060073113711</v>
+        <v>0.0217196638183914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02975137305452975</v>
+        <v>0.02861959262193846</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06757116160083236</v>
+        <v>0.06486268012656432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05351296896456145</v>
+        <v>0.05382246621179259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05393343769412808</v>
+        <v>0.05245124808687388</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.0284741591059906</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04236488903723589</v>
+        <v>0.04236488903723588</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.03480350856614531</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0161239438183768</v>
+        <v>0.01600969063256135</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02813006962607315</v>
+        <v>0.02950614957353311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0258766073948265</v>
+        <v>0.02480812656810857</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04677036190067043</v>
+        <v>0.04631301590973427</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05964129365824664</v>
+        <v>0.06097422519303277</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04688231883882993</v>
+        <v>0.04769429348013612</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05098606953226049</v>
+        <v>0.05098606953226047</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06315292444035381</v>
+        <v>0.06315292444035382</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.05604128676007927</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03184387206486909</v>
+        <v>0.02920093700396054</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04101350414426162</v>
+        <v>0.0417491124903077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04079534830719266</v>
+        <v>0.03950329457375156</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0815186438690578</v>
+        <v>0.08051644007792866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09240167954223023</v>
+        <v>0.09214607024817743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07592641261284803</v>
+        <v>0.07466274958539411</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.04183278929682718</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04321887430455593</v>
+        <v>0.04321887430455594</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03392743544253445</v>
+        <v>0.03463674093350086</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03316177841410457</v>
+        <v>0.03345011247294787</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03648901087498931</v>
+        <v>0.03579282339505137</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05563770970534094</v>
+        <v>0.05600292724096193</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05225509522088002</v>
+        <v>0.05265460849604842</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0510207694452686</v>
+        <v>0.05114058933342541</v>
       </c>
     </row>
     <row r="22">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2698</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15252</v>
+        <v>16315</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11155</v>
+        <v>13308</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19724</v>
+        <v>19613</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13682</v>
+        <v>13280</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5585</v>
+        <v>5341</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23693</v>
+        <v>23594</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41251</v>
+        <v>40236</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20325</v>
+        <v>19763</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51833</v>
+        <v>54975</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14537</v>
+        <v>14135</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8627</v>
+        <v>8623</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27773</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36252</v>
+        <v>34799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21245</v>
+        <v>21367</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50347</v>
+        <v>48963</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8764</v>
+        <v>8702</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12799</v>
+        <v>13425</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25839</v>
+        <v>24772</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25422</v>
+        <v>25173</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27136</v>
+        <v>27742</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>46814</v>
+        <v>47624</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10426</v>
+        <v>9561</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9545</v>
+        <v>9716</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22851</v>
+        <v>22127</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26690</v>
+        <v>26362</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21505</v>
+        <v>21445</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42529</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>64740</v>
+        <v>66094</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>49463</v>
+        <v>49893</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>124054</v>
+        <v>121687</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>106167</v>
+        <v>106864</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>77943</v>
+        <v>78539</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>173459</v>
+        <v>173866</v>
       </c>
     </row>
     <row r="28">
